--- a/data/trans_orig/P36B07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F2ECEF3-7C98-4050-B3DB-AA23B8D97F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98FBF318-E0BE-4DA3-81B7-2C73762369A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62E0FCCA-370C-4184-9692-F50CB6D3547F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E7AE3F8D-8EAE-45B2-830B-E1E0E585E3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="269">
-  <si>
-    <t>Población según la frecuencia de consumición de zumo natural de frutas o verduras en 2015 (Tasa respuesta: 99,24%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="278">
+  <si>
+    <t>Población según la frecuencia de consumo de zumo natural de frutas o verduras en 2015 (Tasa respuesta: 99,24%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>32,73%</t>
   </si>
   <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
   </si>
   <si>
     <t>32,53%</t>
   </si>
   <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
   </si>
   <si>
     <t>32,63%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>14,64%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,28 +134,28 @@
     <t>22,7%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
   </si>
   <si>
     <t>16,56%</t>
   </si>
   <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
   </si>
   <si>
     <t>19,65%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -164,28 +164,28 @@
     <t>12,86%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>12,89%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -194,28 +194,28 @@
     <t>17,07%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -227,619 +227,646 @@
     <t>29,19%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>26,86%</t>
   </si>
   <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
   </si>
   <si>
     <t>28,03%</t>
   </si>
   <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>15,62%</t>
   </si>
   <si>
-    <t>12,64%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>18,51%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
     <t>18,66%</t>
   </si>
   <si>
-    <t>17,42%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
     <t>16,98%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1254,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB7F053-B635-4E49-AF4D-C3ED06D7A30E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CD9415-11A8-48F6-9950-7AE2022921E9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1842,10 +1869,10 @@
         <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
@@ -1854,13 +1881,13 @@
         <v>94339</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>184</v>
@@ -1869,13 +1896,13 @@
         <v>192793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1890,13 +1917,13 @@
         <v>79507</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>90</v>
@@ -1905,13 +1932,13 @@
         <v>91359</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>165</v>
@@ -1920,13 +1947,13 @@
         <v>170866</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,7 +2009,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1994,13 +2021,13 @@
         <v>264736</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>241</v>
@@ -2009,13 +2036,13 @@
         <v>255082</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>493</v>
@@ -2024,13 +2051,13 @@
         <v>519818</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,13 +2072,13 @@
         <v>168298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>162</v>
@@ -2060,13 +2087,13 @@
         <v>175205</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>316</v>
@@ -2075,13 +2102,13 @@
         <v>343503</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,13 +2123,13 @@
         <v>217640</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>204</v>
@@ -2111,13 +2138,13 @@
         <v>219986</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>410</v>
@@ -2126,13 +2153,13 @@
         <v>437626</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2174,13 @@
         <v>188397</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>209</v>
@@ -2162,13 +2189,13 @@
         <v>219895</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>387</v>
@@ -2177,13 +2204,13 @@
         <v>408292</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2225,13 @@
         <v>176044</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -2213,13 +2240,13 @@
         <v>169153</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>313</v>
@@ -2228,13 +2255,13 @@
         <v>345197</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,7 +2317,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2302,13 +2329,13 @@
         <v>163450</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>136</v>
@@ -2317,13 +2344,13 @@
         <v>145654</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>289</v>
@@ -2332,13 +2359,13 @@
         <v>309104</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2380,13 @@
         <v>154900</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>143</v>
@@ -2368,13 +2395,13 @@
         <v>152463</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>285</v>
@@ -2383,13 +2410,13 @@
         <v>307364</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2431,13 @@
         <v>186498</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>174</v>
@@ -2419,13 +2446,13 @@
         <v>183854</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>340</v>
@@ -2434,13 +2461,13 @@
         <v>370352</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2482,13 @@
         <v>141356</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>142</v>
@@ -2470,13 +2497,13 @@
         <v>149637</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>272</v>
@@ -2485,13 +2512,13 @@
         <v>290993</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2533,13 @@
         <v>107554</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -2521,13 +2548,13 @@
         <v>148441</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>237</v>
@@ -2536,13 +2563,13 @@
         <v>255995</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,7 +2625,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2610,13 +2637,13 @@
         <v>197196</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>226</v>
@@ -2625,13 +2652,13 @@
         <v>248830</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>421</v>
@@ -2640,13 +2667,13 @@
         <v>446026</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,13 +2688,13 @@
         <v>186900</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>192</v>
@@ -2676,13 +2703,13 @@
         <v>208449</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>381</v>
@@ -2691,13 +2718,13 @@
         <v>395349</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2739,13 @@
         <v>187417</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>179</v>
@@ -2727,13 +2754,13 @@
         <v>192329</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>368</v>
@@ -2742,13 +2769,13 @@
         <v>379746</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2790,13 @@
         <v>164323</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>149</v>
@@ -2778,13 +2805,13 @@
         <v>163010</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>314</v>
@@ -2793,13 +2820,13 @@
         <v>327333</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2841,13 @@
         <v>192141</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>205</v>
@@ -2829,13 +2856,13 @@
         <v>222778</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>390</v>
@@ -2844,13 +2871,13 @@
         <v>414919</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2945,13 @@
         <v>824624</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>785</v>
@@ -2933,13 +2960,13 @@
         <v>833861</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>1581</v>
@@ -2948,13 +2975,13 @@
         <v>1658485</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>88</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2996,13 @@
         <v>635172</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>602</v>
@@ -2984,13 +3011,13 @@
         <v>640194</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="M35" s="7">
         <v>1209</v>
@@ -2999,13 +3026,13 @@
         <v>1275366</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3047,13 @@
         <v>723979</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>703</v>
@@ -3035,13 +3062,13 @@
         <v>745461</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>1391</v>
@@ -3050,13 +3077,13 @@
         <v>1469439</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3098,13 @@
         <v>607170</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>607</v>
@@ -3086,13 +3113,13 @@
         <v>641430</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M37" s="7">
         <v>1188</v>
@@ -3101,13 +3128,13 @@
         <v>1248599</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,10 +3152,10 @@
         <v>51</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="H38" s="7">
         <v>616</v>
@@ -3137,13 +3164,13 @@
         <v>656276</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>1150</v>
@@ -3152,13 +3179,13 @@
         <v>1230945</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,7 +3241,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98FBF318-E0BE-4DA3-81B7-2C73762369A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F3682B1-420B-4CB3-8A94-840FCE6F67A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E7AE3F8D-8EAE-45B2-830B-E1E0E585E3A3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F517D15F-511B-4267-A0AA-272306EC5AEE}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="278">
-  <si>
-    <t>Población según la frecuencia de consumo de zumo natural de frutas o verduras en 2015 (Tasa respuesta: 99,24%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="275">
+  <si>
+    <t>Población según la frecuencia de consumo de zumo natural de frutas o verduras en 2016 (Tasa respuesta: 99,24%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -74,28 +74,28 @@
     <t>32,73%</t>
   </si>
   <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
   </si>
   <si>
     <t>32,53%</t>
   </si>
   <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
   </si>
   <si>
     <t>32,63%</t>
   </si>
   <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,769 +104,760 @@
     <t>14,64%</t>
   </si>
   <si>
-    <t>8,88%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
   </si>
   <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
   <si>
     <t>25,23%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>16,78%</t>
+    <t>16,98%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
   </si>
   <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>21,35%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
   </si>
   <si>
     <t>18,24%</t>
   </si>
   <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
   </si>
   <si>
     <t>18,14%</t>
   </si>
   <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
   </si>
   <si>
     <t>18,66%</t>
   </si>
   <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>17,35%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>16,98%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1281,7 +1272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CD9415-11A8-48F6-9950-7AE2022921E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37710F5-AD50-4524-B874-840076754189}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1953,7 +1944,7 @@
         <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,7 +2000,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2021,13 +2012,13 @@
         <v>264736</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>241</v>
@@ -2036,13 +2027,13 @@
         <v>255082</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>493</v>
@@ -2051,13 +2042,13 @@
         <v>519818</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,13 +2063,13 @@
         <v>168298</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>162</v>
@@ -2087,13 +2078,13 @@
         <v>175205</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>316</v>
@@ -2102,13 +2093,13 @@
         <v>343503</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,13 +2114,13 @@
         <v>217640</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>204</v>
@@ -2138,13 +2129,13 @@
         <v>219986</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>410</v>
@@ -2153,13 +2144,13 @@
         <v>437626</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,13 +2165,13 @@
         <v>188397</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>209</v>
@@ -2189,13 +2180,13 @@
         <v>219895</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>387</v>
@@ -2204,13 +2195,13 @@
         <v>408292</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2216,13 @@
         <v>176044</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -2240,13 +2231,13 @@
         <v>169153</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>313</v>
@@ -2255,13 +2246,13 @@
         <v>345197</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,7 +2308,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2329,7 +2320,7 @@
         <v>163450</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>154</v>
@@ -2344,13 +2335,13 @@
         <v>145654</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>289</v>
@@ -2359,13 +2350,13 @@
         <v>309104</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2371,13 @@
         <v>154900</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>143</v>
@@ -2395,13 +2386,13 @@
         <v>152463</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>285</v>
@@ -2410,13 +2401,13 @@
         <v>307364</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2422,13 @@
         <v>186498</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>174</v>
@@ -2446,13 +2437,13 @@
         <v>183854</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>340</v>
@@ -2461,13 +2452,13 @@
         <v>370352</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2473,13 @@
         <v>141356</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>142</v>
@@ -2497,13 +2488,13 @@
         <v>149637</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="M25" s="7">
         <v>272</v>
@@ -2512,13 +2503,13 @@
         <v>290993</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2524,13 @@
         <v>107554</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -2548,13 +2539,13 @@
         <v>148441</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>237</v>
@@ -2563,13 +2554,13 @@
         <v>255995</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,7 +2616,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2637,13 +2628,13 @@
         <v>197196</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>226</v>
@@ -2652,13 +2643,13 @@
         <v>248830</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>421</v>
@@ -2667,13 +2658,13 @@
         <v>446026</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2679,13 @@
         <v>186900</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>192</v>
@@ -2703,13 +2694,13 @@
         <v>208449</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>381</v>
@@ -2718,13 +2709,13 @@
         <v>395349</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2730,13 @@
         <v>187417</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>179</v>
@@ -2754,13 +2745,13 @@
         <v>192329</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>368</v>
@@ -2769,13 +2760,13 @@
         <v>379746</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,10 +2781,10 @@
         <v>164323</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>221</v>
@@ -2805,13 +2796,13 @@
         <v>163010</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>314</v>
@@ -2820,13 +2811,13 @@
         <v>327333</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2832,13 @@
         <v>192141</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>205</v>
@@ -2856,13 +2847,13 @@
         <v>222778</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>390</v>
@@ -2871,13 +2862,13 @@
         <v>414919</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2936,13 @@
         <v>824624</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>785</v>
@@ -2960,13 +2951,13 @@
         <v>833861</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>1581</v>
@@ -2975,13 +2966,13 @@
         <v>1658485</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,7 +2987,7 @@
         <v>635172</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>245</v>
@@ -3017,7 +3008,7 @@
         <v>248</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="M35" s="7">
         <v>1209</v>
@@ -3044,7 +3035,7 @@
         <v>688</v>
       </c>
       <c r="D36" s="7">
-        <v>723979</v>
+        <v>723978</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>252</v>
@@ -3083,7 +3074,7 @@
         <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>260</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,16 +3086,16 @@
         <v>581</v>
       </c>
       <c r="D37" s="7">
-        <v>607170</v>
+        <v>607169</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>261</v>
+        <v>49</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>262</v>
+        <v>122</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H37" s="7">
         <v>607</v>
@@ -3113,13 +3104,13 @@
         <v>641430</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M37" s="7">
         <v>1188</v>
@@ -3128,13 +3119,13 @@
         <v>1248599</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,10 +3143,10 @@
         <v>51</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H38" s="7">
         <v>616</v>
@@ -3164,13 +3155,13 @@
         <v>656276</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>274</v>
+        <v>168</v>
       </c>
       <c r="M38" s="7">
         <v>1150</v>
@@ -3179,13 +3170,13 @@
         <v>1230945</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,7 +3188,7 @@
         <v>3206</v>
       </c>
       <c r="D39" s="7">
-        <v>3365614</v>
+        <v>3365613</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -3241,7 +3232,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F3682B1-420B-4CB3-8A94-840FCE6F67A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCA17113-32A4-4361-8A1C-63D5DE1C4543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F517D15F-511B-4267-A0AA-272306EC5AEE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6711CE1D-6ECA-46EB-BB32-6C3CA19759D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="269">
   <si>
     <t>Población según la frecuencia de consumo de zumo natural de frutas o verduras en 2016 (Tasa respuesta: 99,24%)</t>
   </si>
@@ -74,790 +74,772 @@
     <t>32,73%</t>
   </si>
   <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
   </si>
   <si>
     <t>32,53%</t>
   </si>
   <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
     <t>23,71%</t>
   </si>
   <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
   </si>
   <si>
     <t>18,4%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
+    <t>18,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1272,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37710F5-AD50-4524-B874-840076754189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503270D5-22C4-41AA-9620-8878E1A2B95F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1860,10 +1842,10 @@
         <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
@@ -1872,13 +1854,13 @@
         <v>94339</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>184</v>
@@ -1887,13 +1869,13 @@
         <v>192793</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,13 +1890,13 @@
         <v>79507</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>90</v>
@@ -1923,13 +1905,13 @@
         <v>91359</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>165</v>
@@ -1938,13 +1920,13 @@
         <v>170866</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,10 +2048,10 @@
         <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>162</v>
@@ -2078,13 +2060,13 @@
         <v>175205</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>316</v>
@@ -2093,13 +2075,13 @@
         <v>343503</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,13 +2096,13 @@
         <v>217640</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>204</v>
@@ -2129,13 +2111,13 @@
         <v>219986</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>410</v>
@@ -2144,13 +2126,13 @@
         <v>437626</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,13 +2147,13 @@
         <v>188397</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>209</v>
@@ -2180,13 +2162,13 @@
         <v>219895</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>387</v>
@@ -2195,13 +2177,13 @@
         <v>408292</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2198,13 @@
         <v>176044</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -2231,13 +2213,13 @@
         <v>169153</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>313</v>
@@ -2246,13 +2228,13 @@
         <v>345197</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,7 +2290,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2320,13 +2302,13 @@
         <v>163450</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>136</v>
@@ -2335,13 +2317,13 @@
         <v>145654</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>289</v>
@@ -2350,13 +2332,13 @@
         <v>309104</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2353,13 @@
         <v>154900</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="H23" s="7">
         <v>143</v>
@@ -2386,13 +2368,13 @@
         <v>152463</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>285</v>
@@ -2401,13 +2383,13 @@
         <v>307364</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,13 +2404,13 @@
         <v>186498</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>174</v>
@@ -2437,13 +2419,13 @@
         <v>183854</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>340</v>
@@ -2452,13 +2434,13 @@
         <v>370352</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,13 +2455,13 @@
         <v>141356</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>142</v>
@@ -2488,13 +2470,13 @@
         <v>149637</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="M25" s="7">
         <v>272</v>
@@ -2503,13 +2485,13 @@
         <v>290993</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2506,13 @@
         <v>107554</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -2539,13 +2521,13 @@
         <v>148441</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>237</v>
@@ -2554,13 +2536,13 @@
         <v>255995</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,7 +2598,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2628,13 +2610,13 @@
         <v>197196</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>226</v>
@@ -2643,13 +2625,13 @@
         <v>248830</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>421</v>
@@ -2658,13 +2640,13 @@
         <v>446026</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,13 +2661,13 @@
         <v>186900</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>192</v>
@@ -2694,13 +2676,13 @@
         <v>208449</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>381</v>
@@ -2709,13 +2691,13 @@
         <v>395349</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,13 +2712,13 @@
         <v>187417</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>179</v>
@@ -2745,13 +2727,13 @@
         <v>192329</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>368</v>
@@ -2760,13 +2742,13 @@
         <v>379746</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2763,13 @@
         <v>164323</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>149</v>
@@ -2796,13 +2778,13 @@
         <v>163010</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>314</v>
@@ -2811,13 +2793,13 @@
         <v>327333</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2814,13 @@
         <v>192141</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="H32" s="7">
         <v>205</v>
@@ -2847,13 +2829,13 @@
         <v>222778</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>390</v>
@@ -2862,13 +2844,13 @@
         <v>414919</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2918,13 @@
         <v>824624</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>785</v>
@@ -2951,13 +2933,13 @@
         <v>833861</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>1581</v>
@@ -2966,13 +2948,13 @@
         <v>1658485</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2969,13 @@
         <v>635172</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>602</v>
@@ -3002,13 +2984,13 @@
         <v>640194</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>1209</v>
@@ -3017,13 +2999,13 @@
         <v>1275366</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,16 +3017,16 @@
         <v>688</v>
       </c>
       <c r="D36" s="7">
-        <v>723978</v>
+        <v>723979</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="H36" s="7">
         <v>703</v>
@@ -3053,13 +3035,13 @@
         <v>745461</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>256</v>
+        <v>138</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M36" s="7">
         <v>1391</v>
@@ -3068,13 +3050,13 @@
         <v>1469439</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,16 +3068,16 @@
         <v>581</v>
       </c>
       <c r="D37" s="7">
-        <v>607169</v>
+        <v>607170</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>607</v>
@@ -3104,13 +3086,13 @@
         <v>641430</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>1188</v>
@@ -3119,13 +3101,13 @@
         <v>1248599</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,10 +3125,10 @@
         <v>51</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H38" s="7">
         <v>616</v>
@@ -3155,13 +3137,13 @@
         <v>656276</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="M38" s="7">
         <v>1150</v>
@@ -3170,13 +3152,13 @@
         <v>1230945</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,7 +3170,7 @@
         <v>3206</v>
       </c>
       <c r="D39" s="7">
-        <v>3365613</v>
+        <v>3365614</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -3232,7 +3214,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
